--- a/Final Data/Ohio/Ohio companies.xlsx
+++ b/Final Data/Ohio/Ohio companies.xlsx
@@ -1,37 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_496D56CF0670880E6235547658625EBDA66B99B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABDAA313-AAD4-4778-BE43-5B35AAACEA4F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>REVENUES</t>
+  </si>
+  <si>
+    <t>CINCINNATI FINANCIAL</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>AK STEEL HOLDING</t>
+  </si>
+  <si>
+    <t>KEYCORP</t>
+  </si>
+  <si>
+    <t>CUYAHOGA</t>
+  </si>
+  <si>
+    <t>SHERWIN-WILLIAMS</t>
+  </si>
+  <si>
+    <t>PARKER-HANNIFIN</t>
+  </si>
+  <si>
+    <t>PROGRESSIVE</t>
+  </si>
+  <si>
+    <t>TRAVELCENTERS OF AMERICA</t>
+  </si>
+  <si>
+    <t>BIG LOTS</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>CARDINAL HEALTH</t>
+  </si>
+  <si>
+    <t>AMERICAN ELECTRIC POWER</t>
+  </si>
+  <si>
+    <t>NATIONWIDE</t>
+  </si>
+  <si>
+    <t>L BRANDS</t>
+  </si>
+  <si>
+    <t>AMERICAN FINANCIAL GROUP</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>KROGER</t>
+  </si>
+  <si>
+    <t>MACY'S</t>
+  </si>
+  <si>
+    <t>WESTERN &amp; SOUTHERN FINANCIAL GROUP</t>
+  </si>
+  <si>
+    <t>FIFTH THIRD BANCORP</t>
+  </si>
+  <si>
+    <t>MARATHON PETROLEUM</t>
+  </si>
+  <si>
+    <t>HANCOCK</t>
+  </si>
+  <si>
+    <t>DANA HOLDING</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>OWENS CORNING</t>
+  </si>
+  <si>
+    <t>FIRSTENERGY</t>
+  </si>
+  <si>
+    <t>SUMMIT</t>
+  </si>
+  <si>
+    <t>GOODYEAR TIRE &amp; RUBBER</t>
+  </si>
+  <si>
+    <t>J.M. SMUCKER</t>
+  </si>
+  <si>
+    <t>WAYNE</t>
+  </si>
+  <si>
+    <t>OWENS-ILLINOIS</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>PROCTER &amp; GAMBLE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +171,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,563 +495,454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="36.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>COUNTY</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>REVENUES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>40</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>476</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CINCINNATI FINANCIAL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BUTLER</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>5449</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>41</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>441</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AK STEEL HOLDING</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BUTLER</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>5883</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>72</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>479</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>KEYCORP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>5422</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>73</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>236</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SHERWIN-WILLIAMS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>11856</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>74</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>251</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PARKER-HANNIFIN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>11361</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>75</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>120</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PROGRESSIVE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>23441</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>76</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>470</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TRAVELCENTERS OF AMERICA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>5511</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>149</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>495</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BIG LOTS</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>5200</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>150</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CARDINAL HEALTH</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
         <v>121546</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>151</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>167</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AMERICAN ELECTRIC POWER</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
         <v>16380</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>152</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>68</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NATIONWIDE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
         <v>40074</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>153</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>220</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L BRANDS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>12574</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>172</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>411</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AMERICAN FINANCIAL GROUP</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>6498</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>173</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>KROGER</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
         <v>115337</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>174</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>110</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MACY'S</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
         <v>25778</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>175</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>483</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>WESTERN &amp; SOUTHERN FINANCIAL GROUP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
         <v>5398</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>176</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>389</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FIFTH THIRD BANCORP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
         <v>6889</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>179</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>51</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MARATHON PETROLEUM</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>HANCOCK</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
         <v>55858</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>269</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>447</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DANA HOLDING</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LUCAS</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
         <v>5826</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>270</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>458</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>OWENS CORNING</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LUCAS</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
         <v>5677</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>457</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>196</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FIRSTENERGY</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SUMMIT</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
         <v>14156</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>458</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>184</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>GOODYEAR TIRE &amp; RUBBER</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SUMMIT</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
         <v>15158</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>474</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>346</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>J.M. SMUCKER</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>WAYNE</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
         <v>7811</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>489</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>401</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>OWENS-ILLINOIS</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
         <v>6702</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>497</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>36</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PROCTER &amp; GAMBLE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
         <v>71726</v>
       </c>
     </row>

--- a/Final Data/Ohio/Ohio companies.xlsx
+++ b/Final Data/Ohio/Ohio companies.xlsx
@@ -1,162 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_496D56CF0670880E6235547658625EBDA66B99B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABDAA313-AAD4-4778-BE43-5B35AAACEA4F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
-  <si>
-    <t>RANK</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>COUNTY</t>
-  </si>
-  <si>
-    <t>REVENUES</t>
-  </si>
-  <si>
-    <t>CINCINNATI FINANCIAL</t>
-  </si>
-  <si>
-    <t>BUTLER</t>
-  </si>
-  <si>
-    <t>AK STEEL HOLDING</t>
-  </si>
-  <si>
-    <t>KEYCORP</t>
-  </si>
-  <si>
-    <t>CUYAHOGA</t>
-  </si>
-  <si>
-    <t>SHERWIN-WILLIAMS</t>
-  </si>
-  <si>
-    <t>PARKER-HANNIFIN</t>
-  </si>
-  <si>
-    <t>PROGRESSIVE</t>
-  </si>
-  <si>
-    <t>TRAVELCENTERS OF AMERICA</t>
-  </si>
-  <si>
-    <t>BIG LOTS</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>CARDINAL HEALTH</t>
-  </si>
-  <si>
-    <t>AMERICAN ELECTRIC POWER</t>
-  </si>
-  <si>
-    <t>NATIONWIDE</t>
-  </si>
-  <si>
-    <t>L BRANDS</t>
-  </si>
-  <si>
-    <t>AMERICAN FINANCIAL GROUP</t>
-  </si>
-  <si>
-    <t>HAMILTON</t>
-  </si>
-  <si>
-    <t>KROGER</t>
-  </si>
-  <si>
-    <t>MACY'S</t>
-  </si>
-  <si>
-    <t>WESTERN &amp; SOUTHERN FINANCIAL GROUP</t>
-  </si>
-  <si>
-    <t>FIFTH THIRD BANCORP</t>
-  </si>
-  <si>
-    <t>MARATHON PETROLEUM</t>
-  </si>
-  <si>
-    <t>HANCOCK</t>
-  </si>
-  <si>
-    <t>DANA HOLDING</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>OWENS CORNING</t>
-  </si>
-  <si>
-    <t>FIRSTENERGY</t>
-  </si>
-  <si>
-    <t>SUMMIT</t>
-  </si>
-  <si>
-    <t>GOODYEAR TIRE &amp; RUBBER</t>
-  </si>
-  <si>
-    <t>J.M. SMUCKER</t>
-  </si>
-  <si>
-    <t>WAYNE</t>
-  </si>
-  <si>
-    <t>OWENS-ILLINOIS</t>
-  </si>
-  <si>
-    <t>WOOD</t>
-  </si>
-  <si>
-    <t>PROCTER &amp; GAMBLE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -495,454 +420,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="36.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RANK</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>COUNTY</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>REVENUES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>476</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CINCINNATI FINANCIAL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>5449</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>441</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AK STEEL HOLDING</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BUTLER</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>5883</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>479</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KEYCORP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CUYAHOGA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>5422</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>236</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SHERWIN-WILLIAMS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CUYAHOGA</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>11856</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>251</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PARKER-HANNIFIN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CUYAHOGA</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>11361</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>120</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PROGRESSIVE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CUYAHOGA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>23441</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>470</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TRAVELCENTERS OF AMERICA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CUYAHOGA</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5511</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>495</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BIG LOTS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FRANKLIN</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CARDINAL HEALTH</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FRANKLIN</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>121546</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>167</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AMERICAN ELECTRIC POWER</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FRANKLIN</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>16380</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATIONWIDE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FRANKLIN</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>40074</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>220</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>L BRANDS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FRANKLIN</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>12574</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B14" t="n">
+        <v>411</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AMERICAN FINANCIAL GROUP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B15" t="n">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>12574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>172</v>
-      </c>
-      <c r="B14">
-        <v>411</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>6498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>173</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KROGER</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>115337</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MACY'S</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>25778</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>483</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WESTERN &amp; SOUTHERN FINANCIAL GROUP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>5398</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>389</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FIFTH THIRD BANCORP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>6889</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MARATHON PETROLEUM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>HANCOCK</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>55858</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>447</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DANA HOLDING</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LUCAS</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>5826</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>458</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>OWENS CORNING</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LUCAS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>5677</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>196</v>
       </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FIRSTENERGY</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SUMMIT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>14156</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>458</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>184</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GOODYEAR TIRE &amp; RUBBER</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SUMMIT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>15158</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>474</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>346</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>J.M. SMUCKER</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>WAYNE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>7811</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>401</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>OWENS-ILLINOIS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>WOOD</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B26" t="n">
         <v>36</v>
       </c>
-      <c r="E25">
-        <v>6702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>497</v>
-      </c>
-      <c r="B26">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PROCTER &amp; GAMBLE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>71726</v>
       </c>
     </row>

--- a/Final Data/Ohio/Ohio companies.xlsx
+++ b/Final Data/Ohio/Ohio companies.xlsx
@@ -1,37 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Data Analytics in Business/HousingProject/Final Data/Ohio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_496DBA9F437B2E0F6235547658625EBDA66B99B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C659E58-549F-4D7D-9070-9089AB73393F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="23670" yWindow="3405" windowWidth="22830" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>REVENUES</t>
+  </si>
+  <si>
+    <t>CINCINNATI FINANCIAL</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>AK STEEL HOLDING</t>
+  </si>
+  <si>
+    <t>KEYCORP</t>
+  </si>
+  <si>
+    <t>CUYAHOGA</t>
+  </si>
+  <si>
+    <t>SHERWIN-WILLIAMS</t>
+  </si>
+  <si>
+    <t>PARKER-HANNIFIN</t>
+  </si>
+  <si>
+    <t>PROGRESSIVE</t>
+  </si>
+  <si>
+    <t>TRAVELCENTERS OF AMERICA</t>
+  </si>
+  <si>
+    <t>BIG LOTS</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>CARDINAL HEALTH</t>
+  </si>
+  <si>
+    <t>AMERICAN ELECTRIC POWER</t>
+  </si>
+  <si>
+    <t>NATIONWIDE</t>
+  </si>
+  <si>
+    <t>L BRANDS</t>
+  </si>
+  <si>
+    <t>AMERICAN FINANCIAL GROUP</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>KROGER</t>
+  </si>
+  <si>
+    <t>MACY'S</t>
+  </si>
+  <si>
+    <t>WESTERN &amp; SOUTHERN FINANCIAL GROUP</t>
+  </si>
+  <si>
+    <t>FIFTH THIRD BANCORP</t>
+  </si>
+  <si>
+    <t>MARATHON PETROLEUM</t>
+  </si>
+  <si>
+    <t>HANCOCK</t>
+  </si>
+  <si>
+    <t>DANA HOLDING</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>OWENS CORNING</t>
+  </si>
+  <si>
+    <t>FIRSTENERGY</t>
+  </si>
+  <si>
+    <t>SUMMIT</t>
+  </si>
+  <si>
+    <t>GOODYEAR TIRE &amp; RUBBER</t>
+  </si>
+  <si>
+    <t>J.M. SMUCKER</t>
+  </si>
+  <si>
+    <t>WAYNE</t>
+  </si>
+  <si>
+    <t>OWENS-ILLINOIS</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>PROCTER &amp; GAMBLE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +171,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,563 +495,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>COUNTY</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>REVENUES</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>40</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>476</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CINCINNATI FINANCIAL</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BUTLER</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>5449</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>41</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>441</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AK STEEL HOLDING</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BUTLER</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>5883</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>72</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>479</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>KEYCORP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>5422</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>73</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>236</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SHERWIN-WILLIAMS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>11856</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>74</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>251</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PARKER-HANNIFIN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>11361</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>75</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>120</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PROGRESSIVE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>23441</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>76</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>470</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TRAVELCENTERS OF AMERICA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CUYAHOGA</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>5511</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>149</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>495</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BIG LOTS</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>5200</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>150</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>15</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CARDINAL HEALTH</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
         <v>121546</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>151</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>167</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AMERICAN ELECTRIC POWER</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
         <v>16380</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>152</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>68</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NATIONWIDE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
         <v>40074</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>153</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>220</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>L BRANDS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FRANKLIN</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>12574</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>172</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>411</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AMERICAN FINANCIAL GROUP</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>6498</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>173</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>KROGER</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
         <v>115337</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>174</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>110</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MACY'S</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
         <v>25778</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>175</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>483</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>WESTERN &amp; SOUTHERN FINANCIAL GROUP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
         <v>5398</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>176</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>389</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FIFTH THIRD BANCORP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
         <v>6889</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>179</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>51</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MARATHON PETROLEUM</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>HANCOCK</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
         <v>55858</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>269</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>447</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DANA HOLDING</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LUCAS</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
         <v>5826</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>270</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>458</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>OWENS CORNING</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LUCAS</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
         <v>5677</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>457</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>196</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FIRSTENERGY</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SUMMIT</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
         <v>14156</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>458</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>184</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>GOODYEAR TIRE &amp; RUBBER</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SUMMIT</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
         <v>15158</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>474</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>346</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>J.M. SMUCKER</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>WAYNE</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24">
         <v>7811</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>489</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>401</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>OWENS-ILLINOIS</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
         <v>6702</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>497</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>36</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PROCTER &amp; GAMBLE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
         <v>71726</v>
       </c>
     </row>
